--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd4</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.48350866666667</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N2">
-        <v>58.450526</v>
+        <v>104.939308</v>
       </c>
       <c r="O2">
-        <v>0.3081250754721726</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P2">
-        <v>0.3081250754721727</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q2">
-        <v>4.448851379940889</v>
+        <v>4.599804687564001</v>
       </c>
       <c r="R2">
-        <v>40.039662419468</v>
+        <v>41.398242188076</v>
       </c>
       <c r="S2">
-        <v>0.2785697996951241</v>
+        <v>0.1590743937488321</v>
       </c>
       <c r="T2">
-        <v>0.2785697996951241</v>
+        <v>0.1590743937488321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +617,25 @@
         <v>20.343383</v>
       </c>
       <c r="N3">
-        <v>61.03014899999999</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O3">
-        <v>0.3217236961512192</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P3">
-        <v>0.3217236961512193</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q3">
-        <v>4.645194511964666</v>
+        <v>2.675134521117001</v>
       </c>
       <c r="R3">
-        <v>41.806750607682</v>
+        <v>24.076210690053</v>
       </c>
       <c r="S3">
-        <v>0.2908640442738459</v>
+        <v>0.09251379809533233</v>
       </c>
       <c r="T3">
-        <v>0.2908640442738459</v>
+        <v>0.09251379809533233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H4">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.275017</v>
+        <v>25.035323</v>
       </c>
       <c r="N4">
-        <v>69.825051</v>
+        <v>75.105969</v>
       </c>
       <c r="O4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P4">
-        <v>0.3680864926557428</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q4">
-        <v>5.314601865102</v>
+        <v>3.292119939177</v>
       </c>
       <c r="R4">
-        <v>47.831416785918</v>
+        <v>29.629079452593</v>
       </c>
       <c r="S4">
-        <v>0.332779733595072</v>
+        <v>0.1138509173854432</v>
       </c>
       <c r="T4">
-        <v>0.332779733595072</v>
+        <v>0.1138509173854432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +726,40 @@
         <v>0.685018</v>
       </c>
       <c r="I5">
-        <v>0.9040802643804376</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J5">
-        <v>0.9040802643804375</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1305583333333333</v>
+        <v>34.97976933333334</v>
       </c>
       <c r="N5">
-        <v>0.391675</v>
+        <v>104.939308</v>
       </c>
       <c r="O5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="P5">
-        <v>0.002064735720865253</v>
+        <v>0.4352965780925344</v>
       </c>
       <c r="Q5">
-        <v>0.02981160279444444</v>
+        <v>7.987257209727112</v>
       </c>
       <c r="R5">
-        <v>0.26830442515</v>
+        <v>71.88531488754401</v>
       </c>
       <c r="S5">
-        <v>0.001866686816395591</v>
+        <v>0.2762221843437023</v>
       </c>
       <c r="T5">
-        <v>0.001866686816395591</v>
+        <v>0.2762221843437022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +782,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H6">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I6">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J6">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>19.48350866666667</v>
+        <v>20.343383</v>
       </c>
       <c r="N6">
-        <v>58.450526</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O6">
-        <v>0.3081250754721726</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="P6">
-        <v>0.3081250754721727</v>
+        <v>0.2531579017099818</v>
       </c>
       <c r="Q6">
-        <v>0.4720074809586666</v>
+        <v>4.645194511964667</v>
       </c>
       <c r="R6">
-        <v>4.248067328627999</v>
+        <v>41.80675060768201</v>
       </c>
       <c r="S6">
-        <v>0.02955527577704853</v>
+        <v>0.1606441036146495</v>
       </c>
       <c r="T6">
-        <v>0.02955527577704853</v>
+        <v>0.1606441036146495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H7">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I7">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J7">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.343383</v>
+        <v>25.035323</v>
       </c>
       <c r="N7">
-        <v>61.03014899999999</v>
+        <v>75.105969</v>
       </c>
       <c r="O7">
-        <v>0.3217236961512192</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="P7">
-        <v>0.3217236961512193</v>
+        <v>0.3115455201974837</v>
       </c>
       <c r="Q7">
-        <v>0.4928387965579999</v>
+        <v>5.716548963604668</v>
       </c>
       <c r="R7">
-        <v>4.435549169021999</v>
+        <v>51.448940672442</v>
       </c>
       <c r="S7">
-        <v>0.03085965187737339</v>
+        <v>0.1976946028120405</v>
       </c>
       <c r="T7">
-        <v>0.03085965187737339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.024226</v>
-      </c>
-      <c r="H8">
-        <v>0.07267799999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.09591973561956246</v>
-      </c>
-      <c r="J8">
-        <v>0.09591973561956245</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>23.275017</v>
-      </c>
-      <c r="N8">
-        <v>69.825051</v>
-      </c>
-      <c r="O8">
-        <v>0.3680864926557428</v>
-      </c>
-      <c r="P8">
-        <v>0.3680864926557428</v>
-      </c>
-      <c r="Q8">
-        <v>0.563860561842</v>
-      </c>
-      <c r="R8">
-        <v>5.074745056577999</v>
-      </c>
-      <c r="S8">
-        <v>0.03530675906067086</v>
-      </c>
-      <c r="T8">
-        <v>0.03530675906067087</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.024226</v>
-      </c>
-      <c r="H9">
-        <v>0.07267799999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.09591973561956246</v>
-      </c>
-      <c r="J9">
-        <v>0.09591973561956245</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.1305583333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.391675</v>
-      </c>
-      <c r="O9">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="P9">
-        <v>0.002064735720865253</v>
-      </c>
-      <c r="Q9">
-        <v>0.003162906183333333</v>
-      </c>
-      <c r="R9">
-        <v>0.02846615565</v>
-      </c>
-      <c r="S9">
-        <v>0.0001980489044696617</v>
-      </c>
-      <c r="T9">
-        <v>0.0001980489044696618</v>
+        <v>0.1976946028120405</v>
       </c>
     </row>
   </sheetData>
